--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Documents\VSCode\backbase_tech_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B9C890-44AD-4F62-B779-3822AACD3100}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE4593-F864-4F82-8DF4-53DEF0F8B5C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3D1B2F69-324C-4BD2-A527-01AD1289C298}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="11055" xr2:uid="{3D1B2F69-324C-4BD2-A527-01AD1289C298}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Manual Test Cases</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Description</t>
   </si>
@@ -43,13 +44,259 @@
     <t>Expected Output</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>test page http://computer-database.herokuapp.com/computers loaded</t>
+  </si>
+  <si>
+    <t>Computer list filters on known computer when searching by name.</t>
+  </si>
+  <si>
+    <t>Searchable computer entry</t>
+  </si>
+  <si>
+    <t>1. Enter name of computer
+2. Click Filter by name</t>
+  </si>
+  <si>
+    <t>Search results list only computer/s with the name entered</t>
+  </si>
+  <si>
+    <t>Computer entry you can edit</t>
+  </si>
+  <si>
+    <t>New computer can be added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on computer in table you wish to edit.
+2. Update the information for name, introduced date, discontinued date and company to different values that they were.
+3. Click Save
+4. Click computer in table
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer can be edited </t>
+  </si>
+  <si>
+    <t>When you save the changes they are updated in the main table. When you click on the computer the values are the new updated values.</t>
+  </si>
+  <si>
+    <t>You are returned to the main computer list. The number of computers found has updated by 1 and success message is displayed with text ' Done! Computer ,computer name&gt; has been created '. When viewing the computer the Name and company should appear correctly and the dates have been formatted to day month Year with month displayed as a string, such as Jan instead of 01.</t>
+  </si>
+  <si>
+    <t>Computer entry you can delete</t>
+  </si>
+  <si>
+    <t>1. Make a note of the number of computers
+2. Click on computer in table you wish to delete.
+3. Search for computer</t>
+  </si>
+  <si>
+    <t>Computer/s can be deleted</t>
+  </si>
+  <si>
+    <t>When you delete the computer it is no longer in the table and a success message with text ' Done! Computer has been deleted ' is displayed on return to the computer list.</t>
+  </si>
+  <si>
+    <t>Computers can be sorted by columns</t>
+  </si>
+  <si>
+    <t>Computer entries spanning multiple pages</t>
+  </si>
+  <si>
+    <t>1. Click the 'Computer name' header of the table.
+2. Repeat step 1.
+3. Repeat steps 1 and 2 for 'Introduced', 'Discontinued' and 'Company'.</t>
+  </si>
+  <si>
+    <t>When clicking the header the first time the table sorts descending. When clicking again it reverts to original setting, ascending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer list pages can be navigated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click 'Next' (many times) at the bottom of the table.
+2. Click 'Previous' </t>
+  </si>
+  <si>
+    <t>Pages of computer entries can be navigate using the next and previous buttons and the displaying value updates correctly.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Manual CRUD Test Cases</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Add Computer</t>
+  </si>
+  <si>
+    <t>Computer Details</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Searching for a computer that doesn't exist</t>
+  </si>
+  <si>
+    <t>Computer Entry</t>
+  </si>
+  <si>
+    <t>1. Enter a name for a computer that doesn't exist.
+2. Click 'Filter by name'</t>
+  </si>
+  <si>
+    <t>The text 'Nothing to display' is displayed.</t>
+  </si>
+  <si>
+    <t>Computers with non standard names can be added and searched for.</t>
+  </si>
+  <si>
+    <t>Add computers with non-standard names</t>
+  </si>
+  <si>
+    <t>Computers with non-standard names can be filtered</t>
+  </si>
+  <si>
+    <t>1. Add a computer with the a name that has about 1000~ characters.
+2. Repeat step 1 with names:
+ - SELECT * FROM Users WHERE UserId = 105 OR 1=1;
+ - AAA !!""££$$%^^&amp;&amp;**(())__++--==0987654321[]{}:;@'~#/?.,&lt;&gt;|`¬
+- 000111222333444555666777888999</t>
+  </si>
+  <si>
+    <t>Computers with names:
+- 1000~ character name
+- SELECT * FROM Users WHERE UserId = 105 OR 1=1;
+ - AAA !!""££$$%^^&amp;&amp;**(())__++--==0987654321[]{}:;@'~#/?.,&lt;&gt;|`¬
+- 000111222333444555666777888999</t>
+  </si>
+  <si>
+    <t>1. Search for computers with the names listed in prerequisites.
+2. Click 'Filter by name'</t>
+  </si>
+  <si>
+    <t>Filtered results display the computer with the specified name.</t>
+  </si>
+  <si>
+    <t>Add computer without name</t>
+  </si>
+  <si>
+    <t>1. Make a note of the number of computers
+2. Click 'Add a new computer'
+3. Enter a computer name such as 'AAA Test'
+4. Enter Introduced and Discontinued dates such as '2009-01-01' and '2019-01-01' respectively.
+5. Select a company such as 'Apple Inc.'
+6. Click 'Create this computer'
+7. Search for computer by entering in to the filter by name field and clicking 'Filter by name'</t>
+  </si>
+  <si>
+    <t>Add computer with invalid introduced and discontinued dates</t>
+  </si>
+  <si>
+    <t>On 'Add a new computer' page</t>
+  </si>
+  <si>
+    <t>1. Enter valid introduced and discontinued dates and company.
+1. Click 'Create this computer'</t>
+  </si>
+  <si>
+    <t>1. Enter valid name
+2. Enter invalid introduced date such as 2009-99-99
+3. Click 'Create this computer'
+4. Repeat steps 2 &amp; 3 for discontinued date.</t>
+  </si>
+  <si>
+    <t>Date field wrapper is highlighted pink and text turns red.</t>
+  </si>
+  <si>
+    <t>Computer name field wrapper is highlighted pink and text turns red.</t>
+  </si>
+  <si>
+    <t>Cancelling adding a computer</t>
+  </si>
+  <si>
+    <t>1. Enter valid name, dates and company.
+2. Click 'Create this computer'
+3. Repeat steps 1 and 2.</t>
+  </si>
+  <si>
+    <t>Add Computer with identical details</t>
+  </si>
+  <si>
+    <t>Computers with identical details can be added and both appear in computer list.</t>
+  </si>
+  <si>
+    <t>1. Enter valid introduced and discontinued dates and company.
+2. Click 'Cancel'
+3. Click 'Add a new computer'</t>
+  </si>
+  <si>
+    <t>When you are on the add new computer screen after clicking cancel and adding new computer, the fields are reset.</t>
+  </si>
+  <si>
+    <t>Cancelling updating a computer</t>
+  </si>
+  <si>
+    <t>Edit Computer</t>
+  </si>
+  <si>
+    <t>Computer opened for editing</t>
+  </si>
+  <si>
+    <t>When you are on the Edit computer screen after clicking cancel and viewing computerr, the fields are as they were before.</t>
+  </si>
+  <si>
+    <t>Add computer with later introduced date than the discontinued date.</t>
+  </si>
+  <si>
+    <t>1. Enter valid name.
+2. Set introduced date to a date later than the discontinued date.
+3. Click 'Add a new computer'</t>
+  </si>
+  <si>
+    <t>Computer should not be created with an introduced date later than the discontinued date.</t>
+  </si>
+  <si>
+    <t>Pagination behaves correctly when filtering results</t>
+  </si>
+  <si>
+    <t>When you click next the pagination should display the correct number of results/pages and udpate correctly when switching between next and previous.</t>
+  </si>
+  <si>
+    <t>1. Search for 'z' or any query that returns more than one page of results.
+2. Click 'Filter by name'
+3. Click 'Next' at the bottom of the table
+4. Click 'Previous' at the bottom of the table</t>
+  </si>
+  <si>
+    <t>Rationale behind formatting the tests like this is so anyone with little to no knowledge of the application can run the tests and knows exactly what they are testing and what the expected output should be. They can also be ordered by section if you need to tests a specific section.</t>
+  </si>
+  <si>
+    <t>Computers can be created with all companies</t>
+  </si>
+  <si>
+    <t>1. Enter valid introduced and discontinued dates and company.
+2. Click 'Cancel'
+3. Click on the computer</t>
+  </si>
+  <si>
+    <t>Able to create computers with all company options and view in the table.</t>
+  </si>
+  <si>
+    <t>1. Enter valid name
+2. Select first company in list (Apple Inc.)
+3. Click 'Add a new computer'
+4. Check/search Computer in list.
+5. Repeat steps 1 - 4 for all companies.</t>
   </si>
 </sst>
 </file>
@@ -93,14 +340,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,18 +394,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB95FCE-AFEC-420C-AD78-F3129F1A6DF2}" name="Table1" displayName="Table1" ref="A3:G4" totalsRowShown="0">
-  <autoFilter ref="A3:G4" xr:uid="{DEC6F80D-ACE6-489F-9639-FA776C6E1B06}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{435A1390-ACA8-40FE-BE1E-F44B23D33931}" name="Description"/>
-    <tableColumn id="2" xr3:uid="{7BBBCEFE-8B25-4533-9A5A-6699F3DE79C8}" name="Prerequisites"/>
-    <tableColumn id="3" xr3:uid="{EE1A73BB-9080-4E7B-82D7-1502CEC831E4}" name="Steps"/>
-    <tableColumn id="4" xr3:uid="{0EF9AFDA-39C4-4654-9301-A33AA450EDA7}" name="Expected Output"/>
-    <tableColumn id="5" xr3:uid="{ADA6D47A-26F1-4BF2-A4AF-12CE55431BD4}" name="Pass/Fail"/>
-    <tableColumn id="6" xr3:uid="{2EA13A19-B4CB-4D23-BB1B-F2CDB8101E32}" name="Bug"/>
-    <tableColumn id="7" xr3:uid="{F2FA2DCA-061C-4C29-AFFA-309548047DD0}" name="Comments"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB95FCE-AFEC-420C-AD78-F3129F1A6DF2}" name="Table1" displayName="Table1" ref="A6:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A6:E23" xr:uid="{DEC6F80D-ACE6-489F-9639-FA776C6E1B06}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{435A1390-ACA8-40FE-BE1E-F44B23D33931}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1BD817A5-C22D-4C83-A3DC-8F24CDD55164}" name="Section" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7BBBCEFE-8B25-4533-9A5A-6699F3DE79C8}" name="Prerequisites" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EE1A73BB-9080-4E7B-82D7-1502CEC831E4}" name="Steps" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0EF9AFDA-39C4-4654-9301-A33AA450EDA7}" name="Expected Output" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -426,50 +704,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60875CC5-E18F-4831-986F-A77BC88A0534}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
